--- a/artifacts/data_availability/missing_data_2024-04-21_2024-04-28.xlsx
+++ b/artifacts/data_availability/missing_data_2024-04-21_2024-04-28.xlsx
@@ -5883,7 +5883,7 @@
         <v>45410</v>
       </c>
       <c r="D384" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="385" spans="1:4">
